--- a/biology/Zoologie/Clypeaster/Clypeaster.xlsx
+++ b/biology/Zoologie/Clypeaster/Clypeaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clypeaster est un genre d'oursins plats de la famille des Clypeasteridae.
 </t>
@@ -511,52 +523,91 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des oursins plats irréguliers, dont l'anus a migré du disque apical vers la périphérie de la face orale du test (coquille), pour former un « arrière ». Ils mesurent généralement autour de 5 cm de diamètre. Les aires ambulacraires sont en forme de 5 gros pétales, comme chez tous les Clypeasteroida. Les podia y sont modifiés en papules respiratoires (comme des branchies). Ces modifications accompagnent un changement de mode de vie : ils vivent enfouis dans le sable le jour et sortent la nuit pour se nourrir. Ils sont détritivores ou microphages[1], et il en existe un nombre impressionnant d'espèces, ayant colonisé les sables et sédiments de nombreux rivages de par le monde. Certaines espèces sont presque parfaitement plates alors que d'autres sont très bombées, les tailles varient également suivant les espèces d'entre quelques centimètres et plusieurs dizaines de centimètres. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des oursins plats irréguliers, dont l'anus a migré du disque apical vers la périphérie de la face orale du test (coquille), pour former un « arrière ». Ils mesurent généralement autour de 5 cm de diamètre. Les aires ambulacraires sont en forme de 5 gros pétales, comme chez tous les Clypeasteroida. Les podia y sont modifiés en papules respiratoires (comme des branchies). Ces modifications accompagnent un changement de mode de vie : ils vivent enfouis dans le sable le jour et sortent la nuit pour se nourrir. Ils sont détritivores ou microphages, et il en existe un nombre impressionnant d'espèces, ayant colonisé les sables et sédiments de nombreux rivages de par le monde. Certaines espèces sont presque parfaitement plates alors que d'autres sont très bombées, les tailles varient également suivant les espèces d'entre quelques centimètres et plusieurs dizaines de centimètres. 
 			Clypeaster reticulatus vivant, de profil (à Mayotte).
 			idem, du dessus. 
-Ce genre est apparu à la fin de l'Éocène[2].
-Caractéristiques squelettiques
-Le test est ovale à subpentagonal, avec une marge arrondie. 
+Ce genre est apparu à la fin de l'Éocène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clypeaster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clypeaster</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques squelettiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test est ovale à subpentagonal, avec une marge arrondie. 
 Le disque apical est central, et porte 5 gonopores. 
 Les contreforts internes sont généralement bien développés à la périphérie, avec des partitions circonférentielles et de fins piliers centraux. 
 Les pétales sont bien développés et les plaques sont composées, alternant avec des demi-plaques. 
 Tous les ambulacres sont disjoints sur la face orale. 
 Le périprocte est situé en position orale, tourné vers la marge postérieure ; il est positionné entre les troisième et quatrième paires de plaques interambulacraires post-basicoronales. 
 Les sillons nutritifs forment des lignes droites perradiales ; ils ne sont pas ramifiés et ne dépassent pas de la face orale. 
-Les pores et tubercules ne forment pas des lignes, mais sont éparpillés de manière irrégulière[2].
+Les pores et tubercules ne forment pas des lignes, mais sont éparpillés de manière irrégulière.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Clypeaster</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clypeaster</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (27 mai 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (27 mai 2014) :
 Clypeaster aloysioi (Brito, 1959)
 Clypeaster amplificatus Koehler, 1922
 Clypeaster annandalei Koehler, 1922 -- Océan Indien
